--- a/MHE/Tunings.xlsx
+++ b/MHE/Tunings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ornul\Desktop\Kyb master\MASTER\MHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D3090-C364-4380-9EE9-95593D962698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE238DA-C393-4163-860E-F1CA32F518A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
   <si>
     <t>dt</t>
   </si>
@@ -127,6 +127,39 @@
   </si>
   <si>
     <t>diag([0.0002 0.005]);</t>
+  </si>
+  <si>
+    <t>Gamle modell</t>
+  </si>
+  <si>
+    <t>Nye modell</t>
+  </si>
+  <si>
+    <t>0.0003;</t>
+  </si>
+  <si>
+    <t>14;</t>
+  </si>
+  <si>
+    <t>2000*dt*diag([0.1,0.3,1]);</t>
+  </si>
+  <si>
+    <t>1*diag([1,1,1,1,1,1]);</t>
+  </si>
+  <si>
+    <t>1*diag([3,3,3,1,1,1]);</t>
+  </si>
+  <si>
+    <t>0;</t>
+  </si>
+  <si>
+    <t>10*diag([50000 1000 50000 0.5 100 0.5]);</t>
+  </si>
+  <si>
+    <t>diag([0.005 0.005]);</t>
+  </si>
+  <si>
+    <t>dlqr gain P</t>
   </si>
 </sst>
 </file>
@@ -168,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -178,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,418 +495,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="58.7265625" customWidth="1"/>
+    <col min="5" max="5" width="67.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>